--- a/StructureDefinition-molicavc-ethnicity-extension.xlsx
+++ b/StructureDefinition-molicavc-ethnicity-extension.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/StructureDefinition/molicavc-ethnicity-extension</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/StructureDefinition/molicavc-ethnicity-extension</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-15T15:21:17-03:00</t>
+    <t>2023-08-16T00:27:03-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -227,7 +227,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://www.gabriellesantosleandro.com/molic-avc/ValueSet/molicavc-ethnicity-valueset</t>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-ethnicity-valueset</t>
   </si>
   <si>
     <t xml:space="preserve">ext-1
@@ -570,7 +570,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="8.734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.53515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.96875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-molicavc-ethnicity-extension.xlsx
+++ b/StructureDefinition-molicavc-ethnicity-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T00:27:03-03:00</t>
+    <t>2023-08-25T01:55:28-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-ethnicity-extension.xlsx
+++ b/StructureDefinition-molicavc-ethnicity-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T01:55:28-03:00</t>
+    <t>2023-08-29T02:44:39-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-ethnicity-extension.xlsx
+++ b/StructureDefinition-molicavc-ethnicity-extension.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Patient Ethnicity Extension</t>
+    <t>Extension of Patient Ethnicity</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T02:44:39-03:00</t>
+    <t>2023-08-31T16:41:42-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -139,6 +139,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -186,10 +190,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -682,7 +682,7 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>37</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -704,7 +704,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -716,13 +716,13 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -773,30 +773,30 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -819,13 +819,13 @@
         <v>37</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -864,19 +864,19 @@
         <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
@@ -888,7 +888,7 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -907,10 +907,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
@@ -984,10 +984,10 @@
         <v>57</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
@@ -1015,7 +1015,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -1088,7 +1088,7 @@
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>69</v>

--- a/StructureDefinition-molicavc-ethnicity-extension.xlsx
+++ b/StructureDefinition-molicavc-ethnicity-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T16:41:42-03:00</t>
+    <t>2023-09-08T18:23:11-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-molicavc-ethnicity-extension.xlsx
+++ b/StructureDefinition-molicavc-ethnicity-extension.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-08T18:23:11-03:00</t>
+    <t>2023-10-17T16:55:27-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -123,7 +123,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Patient</t>
+    <t>element:Element</t>
   </si>
   <si>
     <t/>
@@ -224,10 +224,11 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-ethnicity-valueset</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">ext-1
@@ -236,6 +237,18 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://molic-avc.gabriellesantosleandro.com/ValueSet/molicavc-ethnicity-valueset</t>
   </si>
 </sst>
 </file>
@@ -369,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -459,77 +472,85 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B21" t="s" s="2">
         <v>36</v>
       </c>
     </row>
@@ -540,7 +561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK5"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -549,8 +570,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="38.5859375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="1.0390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -572,14 +594,13 @@
     <col min="25" max="25" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="75.96875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="9.546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.67578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.0390625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.60546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="6.7421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.15234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.15234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="4.58203125" customWidth="true" bestFit="true"/>
@@ -1060,26 +1081,26 @@
         <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB5" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="Y5" s="2"/>
-      <c r="Z5" t="s" s="2">
+      <c r="AC5" s="2"/>
+      <c r="AD5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>68</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>63</v>
@@ -1097,6 +1118,109 @@
         <v>70</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>62</v>
       </c>
     </row>

--- a/StructureDefinition-molicavc-ethnicity-extension.xlsx
+++ b/StructureDefinition-molicavc-ethnicity-extension.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T16:55:27-03:00</t>
+    <t>2023-10-25T16:05:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
